--- a/figs/adult_homo_harv/zz_summary.xlsx
+++ b/figs/adult_homo_harv/zz_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Model Checking" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Absolute Difference</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,12 +92,21 @@
   <si>
     <t>Yearling fecundity negative correlatied with population size</t>
   </si>
+  <si>
+    <t>Total Fawn</t>
+  </si>
+  <si>
+    <t>Total Y+A</t>
+  </si>
+  <si>
+    <t>Fawn Y+A Ratio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +145,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,13 +179,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,16 +209,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>178308</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>130683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -217,7 +241,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="2476500"/>
+          <a:off x="1790700" y="3952875"/>
           <a:ext cx="5532120" cy="4940808"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1586,13 +1610,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" t="s">
@@ -2106,17 +2133,211 @@
         <v>59.226975882076019</v>
       </c>
     </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <f>B2</f>
+        <v>296.70971700000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:P11" si="1">C2</f>
+        <v>377.50791637293202</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>233.72895941931401</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>204.02774837088</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>113.148077470964</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>125.89804249031</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>57.809989901310502</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>87.059728737046697</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>50.873621507356198</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>81.634501637805698</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>54.676865813250203</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>58.353056953501401</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>43.4894373193303</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>41.548816759255701</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>29.657741846494599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B3:B9)</f>
+        <v>634.00802400000009</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:P12" si="2">SUM(C3:C9)</f>
+        <v>284.97552405404571</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>307.35792767173785</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>192.16651225403979</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>154.31835017787049</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>86.451606526163232</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>106.88969325151595</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>68.136504984019481</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>82.551338829818334</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>77.124567543898991</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>79.658426557398897</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>60.566366245485206</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>67.509938542855664</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>48.185525830277818</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>29.56923403558142</v>
+      </c>
+    </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6">
+        <f>B11/B12</f>
+        <v>0.46799047609529931</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" ref="C13:P13" si="3">C11/C12</f>
+        <v>1.324702946423348</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.76044552092679218</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0617237414454395</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.73321207322750148</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="3"/>
+        <v>1.4562834347353502</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.54083783143881947</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2777251894188792</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.61626646191933299</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0584759725406521</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.68639148645312609</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.9634564622382511</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.64419311079246466</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.86226758021903993</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0029932398927437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2124,7 +2345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
